--- a/xlsx/未来学_intext.xlsx
+++ b/xlsx/未来学_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A0%E6%98%9F%E8%A1%93</t>
   </si>
   <si>
-    <t>占星術</t>
+    <t>占星术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%92%E7%BA%B3</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%85%A8%E8%A7%80</t>
   </si>
   <si>
-    <t>整全觀</t>
+    <t>整全观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%85%89%E5%B1%B1</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E8%98%AD%E7%B8%A3</t>
   </si>
   <si>
-    <t>宜蘭縣</t>
+    <t>宜兰县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%81%E6%BA%AA%E9%84%89</t>
   </si>
   <si>
-    <t>礁溪鄉</t>
+    <t>礁溪乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%85%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佛光大學</t>
+    <t>佛光大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E5%B8%82</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%8D%80</t>
   </si>
   <si>
-    <t>淡水區</t>
+    <t>淡水区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B1%9F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>淡江大學</t>
+    <t>淡江大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A5%E5%AD%A6%E5%AE%B6</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%B4%8D%E6%96%AF%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>維納斯計劃</t>
+    <t>维纳斯计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E7%B2%BE%E7%A5%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>時代精神運動</t>
+    <t>时代精神运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%8F%B2%E5%AD%A6</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
 </sst>
 </file>
